--- a/prcpp-week05/graphs/ThreadPools.xlsx
+++ b/prcpp-week05/graphs/ThreadPools.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20360" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26660" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>CachedThreadPool</t>
   </si>
@@ -2700,11 +2701,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126725408"/>
-        <c:axId val="-2126721600"/>
+        <c:axId val="2136247312"/>
+        <c:axId val="2137723408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126725408"/>
+        <c:axId val="2136247312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2761,12 +2762,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126721600"/>
+        <c:crossAx val="2137723408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126721600"/>
+        <c:axId val="2137723408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2823,7 +2824,2818 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126725408"/>
+        <c:crossAx val="2136247312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CachedThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.31397776E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.10062535E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.49228005E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1482437E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.20744892E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.13436934E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.04398798E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00634796E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.9384356E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.01083596E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.9949618E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.7473167E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.8572647E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9356122E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7467117E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.6010976E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.7179665E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.7221786E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.5804909E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5710829E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.5924244E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.5463161E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.469559E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4503227E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.5043725E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.4887295E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.463014E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.4404793E6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4459441E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.4592006E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.483338E6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.4451772E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.4891115E6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.488757E6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.4713098E6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.4963593E6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.5131847E6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.5786011E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.5139027E6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.5798233E6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.5592976E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.5903589E6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.6331336E6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.5644386E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5994568E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.5836214E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.5792702E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.6781282E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6955296E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.6524233E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.6374312E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.7580447E6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.7326775E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.7495014E6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.7255275E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.7298801E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.7513698E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.8361065E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.8375289E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.8026757E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.7525936E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.8000708E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.8847983E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.8244037E6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.8750679E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.8158772E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.9865071E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.8537707E6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.7887683E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.8848487E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.9142646E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.9494493E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.8654949E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.8299526E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.9444061E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.8983008E6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.779733E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.9007101E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8837854E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.7983765E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.8725792E6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.8426958E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.7936358E6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.8813333E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.01513696E7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.8210869E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.8209464E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.9577207E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.893884E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.7871703E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.9188051E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.8830979E6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.8008607E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.8952025E6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.8576696E6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.8934945E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.8263165E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.8419167E6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8706908E6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.7786208E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WorkStealingThreadPool</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.34016815E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.11776244E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.50167573E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.15736133E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.29807105E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.24513324E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1413276E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.03813522E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.10321153E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.09388475E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.04477219E7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8465031E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.03642792E7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.03408416E7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.00060779E7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.7047298E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.00017024E7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.926331E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.7698254E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5863377E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7944746E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.7656072E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.5701448E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3695201E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6336439E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.6024283E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.483474E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3347876E6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4886333E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.5072829E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.4331138E6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.2197963E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.4237699E6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3484688E6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.323922E6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.1915905E6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.343528E6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3618216E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3220703E6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.1780574E6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2739912E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.3546273E6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.3725604E6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.3692191E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2647267E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.2780291E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.3138081E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.1604941E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.323068E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.2397017E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.2222071E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.1385216E6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.1319567E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.1253048E6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.216591E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.253189E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.2349228E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.1618278E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.2539941E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9.1863792E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9.1731227E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.1844221E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9.2529644E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.2556731E6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.1090477E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.1805248E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.2225478E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.2000406E6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.1126364E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.1616521E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.140772E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.2006166E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.1520638E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.10046E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.0804507E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>9.1605323E6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.170006E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.0566862E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.135107E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.1500395E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.1664005E6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.1606377E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.2308253E6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.3061922E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>9.1433967E6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.0844199E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.1458182E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.1906891E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.1442171E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.0995281E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.0772042E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.2257638E6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1789619E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.1345371E6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.0667389E6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.2197917E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.1774035E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.1027456E6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.1272802E6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.1997687E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>WorkStealingThreadPool (AtomicLong)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$3:$J$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.33869415E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.08975857E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47962424E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.24166137E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.21575911E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16504605E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.07107884E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.8294072E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.03250749E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.02345434E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.7882626E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.2620134E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.6792389E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6649343E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3657342E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.234466E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3235706E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.6338914E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.4745548E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3364697E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.4996196E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.4632493E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3204372E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.1328902E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.3331162E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3320422E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.2232124E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1015585E6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.2056094E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2548665E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.1756833E6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.9764977E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.1385277E6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.0825652E6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.1114891E6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.9598724E6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.0705034E6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0947019E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.0813155E6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.9298088E6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.9779781E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.0907342E6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.0098964E6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.0436129E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.0088423E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.0699198E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.0170311E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.9343829E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.7848883E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.9896763E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.0399738E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8.9328903E6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.9342134E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8.8959181E6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.0083305E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.0842045E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.0936263E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.9149129E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.1137059E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>8.9630288E6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.9605828E6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8.9492054E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.9935202E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.0359084E6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.9309852E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.939226E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.0002134E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.9245395E6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.8773113E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.9487425E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>8.9601E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9734085E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8.9049045E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.8575296E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.886646E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.904767E6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.9009949E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.84757E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.8613735E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.9192503E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.9288127E6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.914172E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.9632641E6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>9.0435121E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.9075414E6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.8362996E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.037317E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.9806777E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.9235403E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.8730977E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8.8324175E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.9665045E6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.8830893E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.8998842E6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.8378732E6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.9908328E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.9321295E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>8.8747599E6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>8.9041115E6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.0054888E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CachedThreadPool (AtomicLong)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>3.33172137E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.09025174E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.47886876E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1397242E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1816229E7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.12546514E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.02009643E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.9539502E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7453871E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.00676902E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.778161E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6065548E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5967389E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.6704053E6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5068918E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.4095631E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.5151433E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.5128165E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.391708E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.367841E6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3771895E6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3662873E6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3213691E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.2771522E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2700984E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.2690824E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.2729401E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.251678E6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3077352E6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.2786035E6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.277059E6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3272052E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.3508598E6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3697049E6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3629094E6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3611173E6</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.4092423E6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.4268729E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.4776715E6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.4433545E6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.442722E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.4870261E6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9.4401462E6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.4972927E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.525879E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.532893E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.4789059E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5849398E6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9.6149362E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.6179505E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5995637E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6288986E6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9.6572358E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.6478675E6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>9.5654836E6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.630295E6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.6804473E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9.6255039E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.7446186E6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0713844E7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.28684158E7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.6782092E6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0080661E7</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.7444505E6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>9.7623637E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.7459264E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>9.8324307E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.7516143E6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>9.7143579E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>9.8144854E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.7819437E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9.8017086E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>9.7726564E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>9.7943463E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>9.8589499E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.04775899E7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>9.7594014E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>9.870726E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>9.8935235E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>9.882554E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.9450921E6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9441617E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.00532725E7</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.00084781E7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.00149986E7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>9.9058664E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>9.9140629E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.9161804E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.9209379E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.9825608E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.9352517E6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.00230592E7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.9320311E6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.00067059E7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.00097706E7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.9322664E6</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.955617E6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.00607403E7</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.00550279E7</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.00160513E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2104333520"/>
+        <c:axId val="-2104329888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2104333520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104329888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2104329888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2104333520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2900,6 +5712,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3455,11 +6307,538 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3467,6 +6846,33 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9316423" cy="6081168"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3756,10 +7162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E102"/>
+  <dimension ref="A2:K102"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="F73" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3768,9 +7174,13 @@
     <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -3783,8 +7193,20 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3800,8 +7222,23 @@
       <c r="E3">
         <v>13270438.1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>33139777.600000001</v>
+      </c>
+      <c r="I3">
+        <v>33401681.5</v>
+      </c>
+      <c r="J3">
+        <v>33386941.5</v>
+      </c>
+      <c r="K3">
+        <v>33317213.699999999</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3817,8 +7254,23 @@
       <c r="E4">
         <v>7940105</v>
       </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>21006253.5</v>
+      </c>
+      <c r="I4">
+        <v>21177624.399999999</v>
+      </c>
+      <c r="J4">
+        <v>20897585.699999999</v>
+      </c>
+      <c r="K4">
+        <v>20902517.399999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3834,8 +7286,23 @@
       <c r="E5">
         <v>6732567.9000000004</v>
       </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>14922800.5</v>
+      </c>
+      <c r="I5">
+        <v>15016757.300000001</v>
+      </c>
+      <c r="J5">
+        <v>14796242.4</v>
+      </c>
+      <c r="K5">
+        <v>14788687.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3851,8 +7318,23 @@
       <c r="E6">
         <v>6497887.5</v>
       </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>11482437</v>
+      </c>
+      <c r="I6">
+        <v>11573613.300000001</v>
+      </c>
+      <c r="J6">
+        <v>12416613.699999999</v>
+      </c>
+      <c r="K6">
+        <v>11397242</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3868,8 +7350,23 @@
       <c r="E7">
         <v>5870243.5999999996</v>
       </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>12074489.199999999</v>
+      </c>
+      <c r="I7">
+        <v>12980710.5</v>
+      </c>
+      <c r="J7">
+        <v>12157591.1</v>
+      </c>
+      <c r="K7">
+        <v>11816229</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3885,8 +7382,23 @@
       <c r="E8">
         <v>6251791.7999999998</v>
       </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>11343693.4</v>
+      </c>
+      <c r="I8">
+        <v>12451332.4</v>
+      </c>
+      <c r="J8">
+        <v>11650460.5</v>
+      </c>
+      <c r="K8">
+        <v>11254651.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3902,8 +7414,23 @@
       <c r="E9">
         <v>6107376.4000000004</v>
       </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>10439879.800000001</v>
+      </c>
+      <c r="I9">
+        <v>11413276</v>
+      </c>
+      <c r="J9">
+        <v>10710788.4</v>
+      </c>
+      <c r="K9">
+        <v>10200964.300000001</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3919,8 +7446,23 @@
       <c r="E10">
         <v>6128156.2000000002</v>
       </c>
+      <c r="G10">
+        <v>8</v>
+      </c>
+      <c r="H10">
+        <v>10063479.6</v>
+      </c>
+      <c r="I10">
+        <v>10381352.199999999</v>
+      </c>
+      <c r="J10">
+        <v>9829407.1999999993</v>
+      </c>
+      <c r="K10">
+        <v>9953950.1999999993</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3936,8 +7478,23 @@
       <c r="E11">
         <v>6172728.0999999996</v>
       </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>9938435.5999999996</v>
+      </c>
+      <c r="I11">
+        <v>11032115.300000001</v>
+      </c>
+      <c r="J11">
+        <v>10325074.9</v>
+      </c>
+      <c r="K11">
+        <v>9745387.0999999996</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3953,8 +7510,23 @@
       <c r="E12">
         <v>6006132.9000000004</v>
       </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10108359.6</v>
+      </c>
+      <c r="I12">
+        <v>10938847.5</v>
+      </c>
+      <c r="J12">
+        <v>10234543.4</v>
+      </c>
+      <c r="K12">
+        <v>10067690.199999999</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3970,8 +7542,23 @@
       <c r="E13">
         <v>5942036.0999999996</v>
       </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <v>9994961.8000000007</v>
+      </c>
+      <c r="I13">
+        <v>10447721.9</v>
+      </c>
+      <c r="J13">
+        <v>9788262.5999999996</v>
+      </c>
+      <c r="K13">
+        <v>9778161</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3987,8 +7574,23 @@
       <c r="E14">
         <v>6013648.7000000002</v>
       </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>9747316.6999999993</v>
+      </c>
+      <c r="I14">
+        <v>9846503.0999999996</v>
+      </c>
+      <c r="J14">
+        <v>9262013.4000000004</v>
+      </c>
+      <c r="K14">
+        <v>9606554.8000000007</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4004,8 +7606,23 @@
       <c r="E15">
         <v>5985844.9000000004</v>
       </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>9857264.6999999993</v>
+      </c>
+      <c r="I15">
+        <v>10364279.199999999</v>
+      </c>
+      <c r="J15">
+        <v>9679238.9000000004</v>
+      </c>
+      <c r="K15">
+        <v>9596738.9000000004</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4021,8 +7638,23 @@
       <c r="E16">
         <v>5851097.5</v>
       </c>
+      <c r="G16">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <v>9935612.1999999993</v>
+      </c>
+      <c r="I16">
+        <v>10340841.6</v>
+      </c>
+      <c r="J16">
+        <v>9664934.3000000007</v>
+      </c>
+      <c r="K16">
+        <v>9670405.3000000007</v>
+      </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4038,8 +7670,23 @@
       <c r="E17">
         <v>5815387.4000000004</v>
       </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>9746711.6999999993</v>
+      </c>
+      <c r="I17">
+        <v>10006077.9</v>
+      </c>
+      <c r="J17">
+        <v>9365734.1999999993</v>
+      </c>
+      <c r="K17">
+        <v>9506891.8000000007</v>
+      </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4055,8 +7702,23 @@
       <c r="E18">
         <v>5858008.9000000004</v>
       </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>9601097.5999999996</v>
+      </c>
+      <c r="I18">
+        <v>9704729.8000000007</v>
+      </c>
+      <c r="J18">
+        <v>9234466</v>
+      </c>
+      <c r="K18">
+        <v>9409563.0999999996</v>
+      </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4072,8 +7734,23 @@
       <c r="E19">
         <v>5960783.4000000004</v>
       </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>9717966.5</v>
+      </c>
+      <c r="I19">
+        <v>10001702.4</v>
+      </c>
+      <c r="J19">
+        <v>9323570.5999999996</v>
+      </c>
+      <c r="K19">
+        <v>9515143.3000000007</v>
+      </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4089,8 +7766,23 @@
       <c r="E20">
         <v>5805360.4000000004</v>
       </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>9722178.5999999996</v>
+      </c>
+      <c r="I20">
+        <v>9926331</v>
+      </c>
+      <c r="J20">
+        <v>9633891.4000000004</v>
+      </c>
+      <c r="K20">
+        <v>9512816.5</v>
+      </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4106,8 +7798,23 @@
       <c r="E21">
         <v>5768172.7999999998</v>
       </c>
+      <c r="G21">
+        <v>19</v>
+      </c>
+      <c r="H21">
+        <v>9580490.9000000004</v>
+      </c>
+      <c r="I21">
+        <v>9769825.4000000004</v>
+      </c>
+      <c r="J21">
+        <v>9474554.8000000007</v>
+      </c>
+      <c r="K21">
+        <v>9391708</v>
+      </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4123,8 +7830,23 @@
       <c r="E22">
         <v>5841294.5</v>
       </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+      <c r="H22">
+        <v>9571082.9000000004</v>
+      </c>
+      <c r="I22">
+        <v>9586337.6999999993</v>
+      </c>
+      <c r="J22">
+        <v>9336469.6999999993</v>
+      </c>
+      <c r="K22">
+        <v>9367841</v>
+      </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4140,8 +7862,23 @@
       <c r="E23">
         <v>5902118.7999999998</v>
       </c>
+      <c r="G23">
+        <v>21</v>
+      </c>
+      <c r="H23">
+        <v>9592424.4000000004</v>
+      </c>
+      <c r="I23">
+        <v>9794474.5999999996</v>
+      </c>
+      <c r="J23">
+        <v>9499619.5999999996</v>
+      </c>
+      <c r="K23">
+        <v>9377189.5</v>
+      </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4157,8 +7894,23 @@
       <c r="E24">
         <v>5784841.0999999996</v>
       </c>
+      <c r="G24">
+        <v>22</v>
+      </c>
+      <c r="H24">
+        <v>9546316.0999999996</v>
+      </c>
+      <c r="I24">
+        <v>9765607.1999999993</v>
+      </c>
+      <c r="J24">
+        <v>9463249.3000000007</v>
+      </c>
+      <c r="K24">
+        <v>9366287.3000000007</v>
+      </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4174,8 +7926,23 @@
       <c r="E25">
         <v>5757270.7999999998</v>
       </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <v>9469559</v>
+      </c>
+      <c r="I25">
+        <v>9570144.8000000007</v>
+      </c>
+      <c r="J25">
+        <v>9320437.1999999993</v>
+      </c>
+      <c r="K25">
+        <v>9321369.0999999996</v>
+      </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4191,8 +7958,23 @@
       <c r="E26">
         <v>5770089.7000000002</v>
       </c>
+      <c r="G26">
+        <v>24</v>
+      </c>
+      <c r="H26">
+        <v>9450322.6999999993</v>
+      </c>
+      <c r="I26">
+        <v>9369520.0999999996</v>
+      </c>
+      <c r="J26">
+        <v>9132890.1999999993</v>
+      </c>
+      <c r="K26">
+        <v>9277152.1999999993</v>
+      </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4208,8 +7990,23 @@
       <c r="E27">
         <v>5849128.0999999996</v>
       </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>9504372.5</v>
+      </c>
+      <c r="I27">
+        <v>9633643.9000000004</v>
+      </c>
+      <c r="J27">
+        <v>9333116.1999999993</v>
+      </c>
+      <c r="K27">
+        <v>9270098.4000000004</v>
+      </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4225,8 +8022,23 @@
       <c r="E28">
         <v>5768567.5999999996</v>
       </c>
+      <c r="G28">
+        <v>26</v>
+      </c>
+      <c r="H28">
+        <v>9488729.5</v>
+      </c>
+      <c r="I28">
+        <v>9602428.3000000007</v>
+      </c>
+      <c r="J28">
+        <v>9332042.1999999993</v>
+      </c>
+      <c r="K28">
+        <v>9269082.4000000004</v>
+      </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4242,8 +8054,23 @@
       <c r="E29">
         <v>5800924.7999999998</v>
       </c>
+      <c r="G29">
+        <v>27</v>
+      </c>
+      <c r="H29">
+        <v>9463014</v>
+      </c>
+      <c r="I29">
+        <v>9483474</v>
+      </c>
+      <c r="J29">
+        <v>9223212.4000000004</v>
+      </c>
+      <c r="K29">
+        <v>9272940.0999999996</v>
+      </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4259,8 +8086,23 @@
       <c r="E30">
         <v>5814470.5</v>
       </c>
+      <c r="G30">
+        <v>28</v>
+      </c>
+      <c r="H30">
+        <v>9440479.3000000007</v>
+      </c>
+      <c r="I30">
+        <v>9334787.5999999996</v>
+      </c>
+      <c r="J30">
+        <v>9101558.5</v>
+      </c>
+      <c r="K30">
+        <v>9251678</v>
+      </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4276,8 +8118,23 @@
       <c r="E31">
         <v>5672971.9000000004</v>
       </c>
+      <c r="G31">
+        <v>29</v>
+      </c>
+      <c r="H31">
+        <v>9445944.0999999996</v>
+      </c>
+      <c r="I31">
+        <v>9488633.3000000007</v>
+      </c>
+      <c r="J31">
+        <v>9205609.4000000004</v>
+      </c>
+      <c r="K31">
+        <v>9307735.1999999993</v>
+      </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4293,8 +8150,23 @@
       <c r="E32">
         <v>5799463.5999999996</v>
       </c>
+      <c r="G32">
+        <v>30</v>
+      </c>
+      <c r="H32">
+        <v>9459200.5999999996</v>
+      </c>
+      <c r="I32">
+        <v>9507282.9000000004</v>
+      </c>
+      <c r="J32">
+        <v>9254866.5</v>
+      </c>
+      <c r="K32">
+        <v>9278603.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4310,8 +8182,23 @@
       <c r="E33">
         <v>5761809.4000000004</v>
       </c>
+      <c r="G33">
+        <v>31</v>
+      </c>
+      <c r="H33">
+        <v>9483338</v>
+      </c>
+      <c r="I33">
+        <v>9433113.8000000007</v>
+      </c>
+      <c r="J33">
+        <v>9175683.3000000007</v>
+      </c>
+      <c r="K33">
+        <v>9277059</v>
+      </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4327,8 +8214,23 @@
       <c r="E34">
         <v>5775482.7999999998</v>
       </c>
+      <c r="G34">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>9445177.1999999993</v>
+      </c>
+      <c r="I34">
+        <v>9219796.3000000007</v>
+      </c>
+      <c r="J34">
+        <v>8976497.6999999993</v>
+      </c>
+      <c r="K34">
+        <v>9327205.1999999993</v>
+      </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4344,8 +8246,23 @@
       <c r="E35">
         <v>5771439.4000000004</v>
       </c>
+      <c r="G35">
+        <v>33</v>
+      </c>
+      <c r="H35">
+        <v>9489111.5</v>
+      </c>
+      <c r="I35">
+        <v>9423769.9000000004</v>
+      </c>
+      <c r="J35">
+        <v>9138527.6999999993</v>
+      </c>
+      <c r="K35">
+        <v>9350859.8000000007</v>
+      </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4361,8 +8278,23 @@
       <c r="E36">
         <v>5784439</v>
       </c>
+      <c r="G36">
+        <v>34</v>
+      </c>
+      <c r="H36">
+        <v>9488757</v>
+      </c>
+      <c r="I36">
+        <v>9348468.8000000007</v>
+      </c>
+      <c r="J36">
+        <v>9082565.1999999993</v>
+      </c>
+      <c r="K36">
+        <v>9369704.9000000004</v>
+      </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4378,8 +8310,23 @@
       <c r="E37">
         <v>5781627.2000000002</v>
       </c>
+      <c r="G37">
+        <v>35</v>
+      </c>
+      <c r="H37">
+        <v>9471309.8000000007</v>
+      </c>
+      <c r="I37">
+        <v>9323922</v>
+      </c>
+      <c r="J37">
+        <v>9111489.0999999996</v>
+      </c>
+      <c r="K37">
+        <v>9362909.4000000004</v>
+      </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4395,8 +8342,23 @@
       <c r="E38">
         <v>5747263.5</v>
       </c>
+      <c r="G38">
+        <v>36</v>
+      </c>
+      <c r="H38">
+        <v>9496359.3000000007</v>
+      </c>
+      <c r="I38">
+        <v>9191590.5</v>
+      </c>
+      <c r="J38">
+        <v>8959872.4000000004</v>
+      </c>
+      <c r="K38">
+        <v>9361117.3000000007</v>
+      </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4412,8 +8374,23 @@
       <c r="E39">
         <v>5761533.2000000002</v>
       </c>
+      <c r="G39">
+        <v>37</v>
+      </c>
+      <c r="H39">
+        <v>9513184.6999999993</v>
+      </c>
+      <c r="I39">
+        <v>9343528</v>
+      </c>
+      <c r="J39">
+        <v>9070503.4000000004</v>
+      </c>
+      <c r="K39">
+        <v>9409242.3000000007</v>
+      </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4429,8 +8406,23 @@
       <c r="E40">
         <v>5771014.5</v>
       </c>
+      <c r="G40">
+        <v>38</v>
+      </c>
+      <c r="H40">
+        <v>9578601.0999999996</v>
+      </c>
+      <c r="I40">
+        <v>9361821.5999999996</v>
+      </c>
+      <c r="J40">
+        <v>9094701.9000000004</v>
+      </c>
+      <c r="K40">
+        <v>9426872.9000000004</v>
+      </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4446,8 +8438,23 @@
       <c r="E41">
         <v>5738079.7999999998</v>
       </c>
+      <c r="G41">
+        <v>39</v>
+      </c>
+      <c r="H41">
+        <v>9513902.6999999993</v>
+      </c>
+      <c r="I41">
+        <v>9322070.3000000007</v>
+      </c>
+      <c r="J41">
+        <v>9081315.5</v>
+      </c>
+      <c r="K41">
+        <v>9477671.5</v>
+      </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4463,8 +8470,23 @@
       <c r="E42">
         <v>5755996.9000000004</v>
       </c>
+      <c r="G42">
+        <v>40</v>
+      </c>
+      <c r="H42">
+        <v>9579823.3000000007</v>
+      </c>
+      <c r="I42">
+        <v>9178057.4000000004</v>
+      </c>
+      <c r="J42">
+        <v>8929808.8000000007</v>
+      </c>
+      <c r="K42">
+        <v>9443354.5</v>
+      </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4480,8 +8502,23 @@
       <c r="E43">
         <v>5778142</v>
       </c>
+      <c r="G43">
+        <v>41</v>
+      </c>
+      <c r="H43">
+        <v>9559297.5999999996</v>
+      </c>
+      <c r="I43">
+        <v>9273991.1999999993</v>
+      </c>
+      <c r="J43">
+        <v>8977978.0999999996</v>
+      </c>
+      <c r="K43">
+        <v>9442722</v>
+      </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4497,8 +8534,23 @@
       <c r="E44">
         <v>5779562.7999999998</v>
       </c>
+      <c r="G44">
+        <v>42</v>
+      </c>
+      <c r="H44">
+        <v>9590358.9000000004</v>
+      </c>
+      <c r="I44">
+        <v>9354627.3000000007</v>
+      </c>
+      <c r="J44">
+        <v>9090734.1999999993</v>
+      </c>
+      <c r="K44">
+        <v>9487026.0999999996</v>
+      </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4514,8 +8566,23 @@
       <c r="E45">
         <v>5894289</v>
       </c>
+      <c r="G45">
+        <v>43</v>
+      </c>
+      <c r="H45">
+        <v>9633133.5999999996</v>
+      </c>
+      <c r="I45">
+        <v>9372560.4000000004</v>
+      </c>
+      <c r="J45">
+        <v>9009896.4000000004</v>
+      </c>
+      <c r="K45">
+        <v>9440146.1999999993</v>
+      </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4531,8 +8598,23 @@
       <c r="E46">
         <v>5771145.9000000004</v>
       </c>
+      <c r="G46">
+        <v>44</v>
+      </c>
+      <c r="H46">
+        <v>9564438.5999999996</v>
+      </c>
+      <c r="I46">
+        <v>9369219.0999999996</v>
+      </c>
+      <c r="J46">
+        <v>9043612.9000000004</v>
+      </c>
+      <c r="K46">
+        <v>9497292.6999999993</v>
+      </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4548,8 +8630,23 @@
       <c r="E47">
         <v>5788008.7000000002</v>
       </c>
+      <c r="G47">
+        <v>45</v>
+      </c>
+      <c r="H47">
+        <v>9599456.8000000007</v>
+      </c>
+      <c r="I47">
+        <v>9264726.6999999993</v>
+      </c>
+      <c r="J47">
+        <v>9008842.3000000007</v>
+      </c>
+      <c r="K47">
+        <v>9525879</v>
+      </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4565,8 +8662,23 @@
       <c r="E48">
         <v>5851114.0999999996</v>
       </c>
+      <c r="G48">
+        <v>46</v>
+      </c>
+      <c r="H48">
+        <v>9583621.4000000004</v>
+      </c>
+      <c r="I48">
+        <v>9278029.0999999996</v>
+      </c>
+      <c r="J48">
+        <v>9069919.8000000007</v>
+      </c>
+      <c r="K48">
+        <v>9532893</v>
+      </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4582,8 +8694,23 @@
       <c r="E49">
         <v>5762434.2999999998</v>
       </c>
+      <c r="G49">
+        <v>47</v>
+      </c>
+      <c r="H49">
+        <v>9579270.1999999993</v>
+      </c>
+      <c r="I49">
+        <v>9313808.0999999996</v>
+      </c>
+      <c r="J49">
+        <v>9017031.0999999996</v>
+      </c>
+      <c r="K49">
+        <v>9478905.9000000004</v>
+      </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4599,8 +8726,23 @@
       <c r="E50">
         <v>5770995.7000000002</v>
       </c>
+      <c r="G50">
+        <v>48</v>
+      </c>
+      <c r="H50">
+        <v>9678128.1999999993</v>
+      </c>
+      <c r="I50">
+        <v>9160494.0999999996</v>
+      </c>
+      <c r="J50">
+        <v>8934382.9000000004</v>
+      </c>
+      <c r="K50">
+        <v>9584939.8000000007</v>
+      </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4616,8 +8758,23 @@
       <c r="E51">
         <v>5675455.9000000004</v>
       </c>
+      <c r="G51">
+        <v>49</v>
+      </c>
+      <c r="H51">
+        <v>9695529.5999999996</v>
+      </c>
+      <c r="I51">
+        <v>9323068</v>
+      </c>
+      <c r="J51">
+        <v>8784888.3000000007</v>
+      </c>
+      <c r="K51">
+        <v>9614936.1999999993</v>
+      </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4633,8 +8790,23 @@
       <c r="E52">
         <v>5812049.4000000004</v>
       </c>
+      <c r="G52">
+        <v>50</v>
+      </c>
+      <c r="H52">
+        <v>9652423.3000000007</v>
+      </c>
+      <c r="I52">
+        <v>9239701.6999999993</v>
+      </c>
+      <c r="J52">
+        <v>8989676.3000000007</v>
+      </c>
+      <c r="K52">
+        <v>9617950.5</v>
+      </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4650,8 +8822,23 @@
       <c r="E53">
         <v>5703585.4000000004</v>
       </c>
+      <c r="G53">
+        <v>51</v>
+      </c>
+      <c r="H53">
+        <v>9637431.1999999993</v>
+      </c>
+      <c r="I53">
+        <v>9222207.0999999996</v>
+      </c>
+      <c r="J53">
+        <v>9039973.8000000007</v>
+      </c>
+      <c r="K53">
+        <v>9599563.6999999993</v>
+      </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4667,8 +8854,23 @@
       <c r="E54">
         <v>5762798.7000000002</v>
       </c>
+      <c r="G54">
+        <v>52</v>
+      </c>
+      <c r="H54">
+        <v>9758044.6999999993</v>
+      </c>
+      <c r="I54">
+        <v>9138521.5999999996</v>
+      </c>
+      <c r="J54">
+        <v>8932890.3000000007</v>
+      </c>
+      <c r="K54">
+        <v>9628898.5999999996</v>
+      </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4684,8 +8886,23 @@
       <c r="E55">
         <v>5744509.9000000004</v>
       </c>
+      <c r="G55">
+        <v>53</v>
+      </c>
+      <c r="H55">
+        <v>9732677.5</v>
+      </c>
+      <c r="I55">
+        <v>9131956.6999999993</v>
+      </c>
+      <c r="J55">
+        <v>8934213.4000000004</v>
+      </c>
+      <c r="K55">
+        <v>9657235.8000000007</v>
+      </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4701,8 +8918,23 @@
       <c r="E56">
         <v>5850972.9000000004</v>
       </c>
+      <c r="G56">
+        <v>54</v>
+      </c>
+      <c r="H56">
+        <v>9749501.4000000004</v>
+      </c>
+      <c r="I56">
+        <v>9125304.8000000007</v>
+      </c>
+      <c r="J56">
+        <v>8895918.0999999996</v>
+      </c>
+      <c r="K56">
+        <v>9647867.5</v>
+      </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4718,8 +8950,23 @@
       <c r="E57">
         <v>5739623.5</v>
       </c>
+      <c r="G57">
+        <v>55</v>
+      </c>
+      <c r="H57">
+        <v>9725527.5</v>
+      </c>
+      <c r="I57">
+        <v>9216591</v>
+      </c>
+      <c r="J57">
+        <v>9008330.5</v>
+      </c>
+      <c r="K57">
+        <v>9565483.5999999996</v>
+      </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4735,8 +8982,23 @@
       <c r="E58">
         <v>5759964.2999999998</v>
       </c>
+      <c r="G58">
+        <v>56</v>
+      </c>
+      <c r="H58">
+        <v>9729880.0999999996</v>
+      </c>
+      <c r="I58">
+        <v>9253189</v>
+      </c>
+      <c r="J58">
+        <v>9084204.5</v>
+      </c>
+      <c r="K58">
+        <v>9630295</v>
+      </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4752,8 +9014,23 @@
       <c r="E59">
         <v>5756631.9000000004</v>
       </c>
+      <c r="G59">
+        <v>57</v>
+      </c>
+      <c r="H59">
+        <v>9751369.8000000007</v>
+      </c>
+      <c r="I59">
+        <v>9234922.8000000007</v>
+      </c>
+      <c r="J59">
+        <v>9093626.3000000007</v>
+      </c>
+      <c r="K59">
+        <v>9680447.3000000007</v>
+      </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4769,8 +9046,23 @@
       <c r="E60">
         <v>5729941.5</v>
       </c>
+      <c r="G60">
+        <v>58</v>
+      </c>
+      <c r="H60">
+        <v>9836106.5</v>
+      </c>
+      <c r="I60">
+        <v>9161827.8000000007</v>
+      </c>
+      <c r="J60">
+        <v>8914912.9000000004</v>
+      </c>
+      <c r="K60">
+        <v>9625503.9000000004</v>
+      </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4786,8 +9078,23 @@
       <c r="E61">
         <v>5772722.9000000004</v>
       </c>
+      <c r="G61">
+        <v>59</v>
+      </c>
+      <c r="H61">
+        <v>9837528.9000000004</v>
+      </c>
+      <c r="I61">
+        <v>9253994.0999999996</v>
+      </c>
+      <c r="J61">
+        <v>9113705.9000000004</v>
+      </c>
+      <c r="K61">
+        <v>9744618.5999999996</v>
+      </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4803,8 +9110,23 @@
       <c r="E62">
         <v>5683093.5999999996</v>
       </c>
+      <c r="G62">
+        <v>60</v>
+      </c>
+      <c r="H62">
+        <v>9802675.6999999993</v>
+      </c>
+      <c r="I62">
+        <v>9186379.1999999993</v>
+      </c>
+      <c r="J62">
+        <v>8963028.8000000007</v>
+      </c>
+      <c r="K62">
+        <v>10713844</v>
+      </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4820,8 +9142,23 @@
       <c r="E63">
         <v>5774105.2000000002</v>
       </c>
+      <c r="G63">
+        <v>61</v>
+      </c>
+      <c r="H63">
+        <v>9752593.5999999996</v>
+      </c>
+      <c r="I63">
+        <v>9173122.6999999993</v>
+      </c>
+      <c r="J63">
+        <v>8960582.8000000007</v>
+      </c>
+      <c r="K63">
+        <v>12868415.800000001</v>
+      </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4837,8 +9174,23 @@
       <c r="E64">
         <v>5766608.2000000002</v>
       </c>
+      <c r="G64">
+        <v>62</v>
+      </c>
+      <c r="H64">
+        <v>9800070.8000000007</v>
+      </c>
+      <c r="I64">
+        <v>9184422.0999999996</v>
+      </c>
+      <c r="J64">
+        <v>8949205.4000000004</v>
+      </c>
+      <c r="K64">
+        <v>9678209.1999999993</v>
+      </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4854,8 +9206,23 @@
       <c r="E65">
         <v>5733680.0999999996</v>
       </c>
+      <c r="G65">
+        <v>63</v>
+      </c>
+      <c r="H65">
+        <v>9884798.3000000007</v>
+      </c>
+      <c r="I65">
+        <v>9252964.4000000004</v>
+      </c>
+      <c r="J65">
+        <v>8993520.1999999993</v>
+      </c>
+      <c r="K65">
+        <v>10080661</v>
+      </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4871,8 +9238,23 @@
       <c r="E66">
         <v>5647946.5</v>
       </c>
+      <c r="G66">
+        <v>64</v>
+      </c>
+      <c r="H66">
+        <v>9824403.6999999993</v>
+      </c>
+      <c r="I66">
+        <v>9255673.0999999996</v>
+      </c>
+      <c r="J66">
+        <v>9035908.4000000004</v>
+      </c>
+      <c r="K66">
+        <v>9744450.5</v>
+      </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4888,8 +9270,23 @@
       <c r="E67">
         <v>5736461.2999999998</v>
       </c>
+      <c r="G67">
+        <v>65</v>
+      </c>
+      <c r="H67">
+        <v>9875067.9000000004</v>
+      </c>
+      <c r="I67">
+        <v>9109047.6999999993</v>
+      </c>
+      <c r="J67">
+        <v>8930985.1999999993</v>
+      </c>
+      <c r="K67">
+        <v>9762363.6999999993</v>
+      </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4905,8 +9302,23 @@
       <c r="E68">
         <v>5728713.5999999996</v>
       </c>
+      <c r="G68">
+        <v>66</v>
+      </c>
+      <c r="H68">
+        <v>9815877.1999999993</v>
+      </c>
+      <c r="I68">
+        <v>9180524.8000000007</v>
+      </c>
+      <c r="J68">
+        <v>8939226</v>
+      </c>
+      <c r="K68">
+        <v>9745926.4000000004</v>
+      </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4922,8 +9334,23 @@
       <c r="E69">
         <v>5738146.5</v>
       </c>
+      <c r="G69">
+        <v>67</v>
+      </c>
+      <c r="H69">
+        <v>9986507.0999999996</v>
+      </c>
+      <c r="I69">
+        <v>9222547.8000000007</v>
+      </c>
+      <c r="J69">
+        <v>9000213.4000000004</v>
+      </c>
+      <c r="K69">
+        <v>9832430.6999999993</v>
+      </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4939,8 +9366,23 @@
       <c r="E70">
         <v>5765590</v>
       </c>
+      <c r="G70">
+        <v>68</v>
+      </c>
+      <c r="H70">
+        <v>9853770.6999999993</v>
+      </c>
+      <c r="I70">
+        <v>9200040.5999999996</v>
+      </c>
+      <c r="J70">
+        <v>8924539.5</v>
+      </c>
+      <c r="K70">
+        <v>9751614.3000000007</v>
+      </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4956,8 +9398,23 @@
       <c r="E71">
         <v>5706873.9000000004</v>
       </c>
+      <c r="G71">
+        <v>69</v>
+      </c>
+      <c r="H71">
+        <v>9788768.3000000007</v>
+      </c>
+      <c r="I71">
+        <v>9112636.4000000004</v>
+      </c>
+      <c r="J71">
+        <v>8877311.3000000007</v>
+      </c>
+      <c r="K71">
+        <v>9714357.9000000004</v>
+      </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4973,8 +9430,23 @@
       <c r="E72">
         <v>5711237.4000000004</v>
       </c>
+      <c r="G72">
+        <v>70</v>
+      </c>
+      <c r="H72">
+        <v>9884848.6999999993</v>
+      </c>
+      <c r="I72">
+        <v>9161652.0999999996</v>
+      </c>
+      <c r="J72">
+        <v>8948742.5</v>
+      </c>
+      <c r="K72">
+        <v>9814485.4000000004</v>
+      </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4990,8 +9462,23 @@
       <c r="E73">
         <v>5756573.7999999998</v>
       </c>
+      <c r="G73">
+        <v>71</v>
+      </c>
+      <c r="H73">
+        <v>9914264.5999999996</v>
+      </c>
+      <c r="I73">
+        <v>9140772</v>
+      </c>
+      <c r="J73">
+        <v>8960100</v>
+      </c>
+      <c r="K73">
+        <v>9781943.6999999993</v>
+      </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5007,8 +9494,23 @@
       <c r="E74">
         <v>5752828</v>
       </c>
+      <c r="G74">
+        <v>72</v>
+      </c>
+      <c r="H74">
+        <v>9949449.3000000007</v>
+      </c>
+      <c r="I74">
+        <v>9200616.5999999996</v>
+      </c>
+      <c r="J74">
+        <v>8973408.5</v>
+      </c>
+      <c r="K74">
+        <v>9801708.5999999996</v>
+      </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5024,8 +9526,23 @@
       <c r="E75">
         <v>5762632</v>
       </c>
+      <c r="G75">
+        <v>73</v>
+      </c>
+      <c r="H75">
+        <v>9865494.9000000004</v>
+      </c>
+      <c r="I75">
+        <v>9152063.8000000007</v>
+      </c>
+      <c r="J75">
+        <v>8904904.5</v>
+      </c>
+      <c r="K75">
+        <v>9772656.4000000004</v>
+      </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5041,8 +9558,23 @@
       <c r="E76">
         <v>5734779</v>
       </c>
+      <c r="G76">
+        <v>74</v>
+      </c>
+      <c r="H76">
+        <v>9829952.5999999996</v>
+      </c>
+      <c r="I76">
+        <v>9100460</v>
+      </c>
+      <c r="J76">
+        <v>8857529.5999999996</v>
+      </c>
+      <c r="K76">
+        <v>9794346.3000000007</v>
+      </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5058,8 +9590,23 @@
       <c r="E77">
         <v>5834156.7999999998</v>
       </c>
+      <c r="G77">
+        <v>75</v>
+      </c>
+      <c r="H77">
+        <v>9944406.0999999996</v>
+      </c>
+      <c r="I77">
+        <v>9080450.6999999993</v>
+      </c>
+      <c r="J77">
+        <v>8886646</v>
+      </c>
+      <c r="K77">
+        <v>9858949.9000000004</v>
+      </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5075,8 +9622,23 @@
       <c r="E78">
         <v>5779232</v>
       </c>
+      <c r="G78">
+        <v>76</v>
+      </c>
+      <c r="H78">
+        <v>9898300.8000000007</v>
+      </c>
+      <c r="I78">
+        <v>9160532.3000000007</v>
+      </c>
+      <c r="J78">
+        <v>8904767</v>
+      </c>
+      <c r="K78">
+        <v>10477589.9</v>
+      </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5092,8 +9654,23 @@
       <c r="E79">
         <v>5722400.9000000004</v>
       </c>
+      <c r="G79">
+        <v>77</v>
+      </c>
+      <c r="H79">
+        <v>9779733</v>
+      </c>
+      <c r="I79">
+        <v>9170006</v>
+      </c>
+      <c r="J79">
+        <v>8900994.9000000004</v>
+      </c>
+      <c r="K79">
+        <v>9759401.4000000004</v>
+      </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5109,8 +9686,23 @@
       <c r="E80">
         <v>5744244.2000000002</v>
       </c>
+      <c r="G80">
+        <v>78</v>
+      </c>
+      <c r="H80">
+        <v>9900710.0999999996</v>
+      </c>
+      <c r="I80">
+        <v>9056686.1999999993</v>
+      </c>
+      <c r="J80">
+        <v>8847570</v>
+      </c>
+      <c r="K80">
+        <v>9870726</v>
+      </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5126,8 +9718,23 @@
       <c r="E81">
         <v>5805583</v>
       </c>
+      <c r="G81">
+        <v>79</v>
+      </c>
+      <c r="H81">
+        <v>9883785.4000000004</v>
+      </c>
+      <c r="I81">
+        <v>9135107</v>
+      </c>
+      <c r="J81">
+        <v>8861373.5</v>
+      </c>
+      <c r="K81">
+        <v>9893523.5</v>
+      </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5143,8 +9750,23 @@
       <c r="E82">
         <v>5756044.5</v>
       </c>
+      <c r="G82">
+        <v>80</v>
+      </c>
+      <c r="H82">
+        <v>9798376.5</v>
+      </c>
+      <c r="I82">
+        <v>9150039.5</v>
+      </c>
+      <c r="J82">
+        <v>8919250.3000000007</v>
+      </c>
+      <c r="K82">
+        <v>9882554</v>
+      </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5160,8 +9782,23 @@
       <c r="E83">
         <v>5763490.2999999998</v>
       </c>
+      <c r="G83">
+        <v>81</v>
+      </c>
+      <c r="H83">
+        <v>9872579.1999999993</v>
+      </c>
+      <c r="I83">
+        <v>9166400.5</v>
+      </c>
+      <c r="J83">
+        <v>8928812.6999999993</v>
+      </c>
+      <c r="K83">
+        <v>9945092.0999999996</v>
+      </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5177,8 +9814,23 @@
       <c r="E84">
         <v>5718296</v>
       </c>
+      <c r="G84">
+        <v>82</v>
+      </c>
+      <c r="H84">
+        <v>9842695.8000000007</v>
+      </c>
+      <c r="I84">
+        <v>9160637.6999999993</v>
+      </c>
+      <c r="J84">
+        <v>8914172</v>
+      </c>
+      <c r="K84">
+        <v>9944161.6999999993</v>
+      </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5194,8 +9846,23 @@
       <c r="E85">
         <v>5751955.5999999996</v>
       </c>
+      <c r="G85">
+        <v>83</v>
+      </c>
+      <c r="H85">
+        <v>9793635.8000000007</v>
+      </c>
+      <c r="I85">
+        <v>9230825.3000000007</v>
+      </c>
+      <c r="J85">
+        <v>8963264.0999999996</v>
+      </c>
+      <c r="K85">
+        <v>10053272.5</v>
+      </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5211,8 +9878,23 @@
       <c r="E86">
         <v>5766213.7000000002</v>
       </c>
+      <c r="G86">
+        <v>84</v>
+      </c>
+      <c r="H86">
+        <v>9881333.3000000007</v>
+      </c>
+      <c r="I86">
+        <v>9306192.1999999993</v>
+      </c>
+      <c r="J86">
+        <v>9043512.0999999996</v>
+      </c>
+      <c r="K86">
+        <v>10008478.1</v>
+      </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5228,8 +9910,23 @@
       <c r="E87">
         <v>5766992.4000000004</v>
       </c>
+      <c r="G87">
+        <v>85</v>
+      </c>
+      <c r="H87">
+        <v>10151369.6</v>
+      </c>
+      <c r="I87">
+        <v>9143396.6999999993</v>
+      </c>
+      <c r="J87">
+        <v>8907541.4000000004</v>
+      </c>
+      <c r="K87">
+        <v>10014998.6</v>
+      </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5245,8 +9942,23 @@
       <c r="E88">
         <v>5892625.9000000004</v>
       </c>
+      <c r="G88">
+        <v>86</v>
+      </c>
+      <c r="H88">
+        <v>9821086.9000000004</v>
+      </c>
+      <c r="I88">
+        <v>9084419.9000000004</v>
+      </c>
+      <c r="J88">
+        <v>8836299.5999999996</v>
+      </c>
+      <c r="K88">
+        <v>9905866.4000000004</v>
+      </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5262,8 +9974,23 @@
       <c r="E89">
         <v>5783008.9000000004</v>
       </c>
+      <c r="G89">
+        <v>87</v>
+      </c>
+      <c r="H89">
+        <v>9820946.4000000004</v>
+      </c>
+      <c r="I89">
+        <v>9145818.1999999993</v>
+      </c>
+      <c r="J89">
+        <v>9037317</v>
+      </c>
+      <c r="K89">
+        <v>9914062.9000000004</v>
+      </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5279,8 +10006,23 @@
       <c r="E90">
         <v>5740526.9000000004</v>
       </c>
+      <c r="G90">
+        <v>88</v>
+      </c>
+      <c r="H90">
+        <v>9957720.6999999993</v>
+      </c>
+      <c r="I90">
+        <v>9190689.0999999996</v>
+      </c>
+      <c r="J90">
+        <v>8980677.6999999993</v>
+      </c>
+      <c r="K90">
+        <v>9916180.4000000004</v>
+      </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5296,8 +10038,23 @@
       <c r="E91">
         <v>5695376.2000000002</v>
       </c>
+      <c r="G91">
+        <v>89</v>
+      </c>
+      <c r="H91">
+        <v>9893884</v>
+      </c>
+      <c r="I91">
+        <v>9144217.0999999996</v>
+      </c>
+      <c r="J91">
+        <v>8923540.3000000007</v>
+      </c>
+      <c r="K91">
+        <v>9920937.9000000004</v>
+      </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5313,8 +10070,23 @@
       <c r="E92">
         <v>5721279.5</v>
       </c>
+      <c r="G92">
+        <v>90</v>
+      </c>
+      <c r="H92">
+        <v>9787170.3000000007</v>
+      </c>
+      <c r="I92">
+        <v>9099528.0999999996</v>
+      </c>
+      <c r="J92">
+        <v>8873097.6999999993</v>
+      </c>
+      <c r="K92">
+        <v>9982560.8000000007</v>
+      </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5330,8 +10102,23 @@
       <c r="E93">
         <v>5725676.5999999996</v>
       </c>
+      <c r="G93">
+        <v>91</v>
+      </c>
+      <c r="H93">
+        <v>9918805.0999999996</v>
+      </c>
+      <c r="I93">
+        <v>9077204.1999999993</v>
+      </c>
+      <c r="J93">
+        <v>8832417.5</v>
+      </c>
+      <c r="K93">
+        <v>9935251.6999999993</v>
+      </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5347,8 +10134,23 @@
       <c r="E94">
         <v>5787372.5999999996</v>
       </c>
+      <c r="G94">
+        <v>92</v>
+      </c>
+      <c r="H94">
+        <v>9883097.9000000004</v>
+      </c>
+      <c r="I94">
+        <v>9225763.8000000007</v>
+      </c>
+      <c r="J94">
+        <v>8966504.5</v>
+      </c>
+      <c r="K94">
+        <v>10023059.199999999</v>
+      </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5364,8 +10166,23 @@
       <c r="E95">
         <v>5746423.2000000002</v>
       </c>
+      <c r="G95">
+        <v>93</v>
+      </c>
+      <c r="H95">
+        <v>9800860.6999999993</v>
+      </c>
+      <c r="I95">
+        <v>9178961.9000000004</v>
+      </c>
+      <c r="J95">
+        <v>8883089.3000000007</v>
+      </c>
+      <c r="K95">
+        <v>9932031.0999999996</v>
+      </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5381,8 +10198,23 @@
       <c r="E96">
         <v>5728419.9000000004</v>
       </c>
+      <c r="G96">
+        <v>94</v>
+      </c>
+      <c r="H96">
+        <v>9895202.5</v>
+      </c>
+      <c r="I96">
+        <v>9134537.0999999996</v>
+      </c>
+      <c r="J96">
+        <v>8899884.1999999993</v>
+      </c>
+      <c r="K96">
+        <v>10006705.9</v>
+      </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5398,8 +10230,23 @@
       <c r="E97">
         <v>5748031.7000000002</v>
       </c>
+      <c r="G97">
+        <v>95</v>
+      </c>
+      <c r="H97">
+        <v>9857669.5999999996</v>
+      </c>
+      <c r="I97">
+        <v>9066738.9000000004</v>
+      </c>
+      <c r="J97">
+        <v>8837873.1999999993</v>
+      </c>
+      <c r="K97">
+        <v>10009770.6</v>
+      </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5415,8 +10262,23 @@
       <c r="E98">
         <v>5823550.7000000002</v>
       </c>
+      <c r="G98">
+        <v>96</v>
+      </c>
+      <c r="H98">
+        <v>9893494.5</v>
+      </c>
+      <c r="I98">
+        <v>9219791.6999999993</v>
+      </c>
+      <c r="J98">
+        <v>8990832.8000000007</v>
+      </c>
+      <c r="K98">
+        <v>9932266.4000000004</v>
+      </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5432,8 +10294,23 @@
       <c r="E99">
         <v>5740084</v>
       </c>
+      <c r="G99">
+        <v>97</v>
+      </c>
+      <c r="H99">
+        <v>9826316.5</v>
+      </c>
+      <c r="I99">
+        <v>9177403.5</v>
+      </c>
+      <c r="J99">
+        <v>8932129.5</v>
+      </c>
+      <c r="K99">
+        <v>9955617</v>
+      </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5449,8 +10326,23 @@
       <c r="E100">
         <v>5731542.2000000002</v>
       </c>
+      <c r="G100">
+        <v>98</v>
+      </c>
+      <c r="H100">
+        <v>9841916.6999999993</v>
+      </c>
+      <c r="I100">
+        <v>9102745.5999999996</v>
+      </c>
+      <c r="J100">
+        <v>8874759.9000000004</v>
+      </c>
+      <c r="K100">
+        <v>10060740.300000001</v>
+      </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5466,8 +10358,23 @@
       <c r="E101">
         <v>5764760.0999999996</v>
       </c>
+      <c r="G101">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>9870690.8000000007</v>
+      </c>
+      <c r="I101">
+        <v>9127280.1999999993</v>
+      </c>
+      <c r="J101">
+        <v>8904111.5</v>
+      </c>
+      <c r="K101">
+        <v>10055027.9</v>
+      </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5482,6 +10389,21 @@
       </c>
       <c r="E102">
         <v>5775238.5999999996</v>
+      </c>
+      <c r="G102">
+        <v>100</v>
+      </c>
+      <c r="H102">
+        <v>9778620.8000000007</v>
+      </c>
+      <c r="I102">
+        <v>9199768.6999999993</v>
+      </c>
+      <c r="J102">
+        <v>9005488.8000000007</v>
+      </c>
+      <c r="K102">
+        <v>10016051.300000001</v>
       </c>
     </row>
   </sheetData>
